--- a/Recycling/Met_rec/metrec_Max_target_Max.xlsx
+++ b/Recycling/Met_rec/metrec_Max_target_Max.xlsx
@@ -128,7 +128,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -1917,7 +1917,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>31910.83925839419</v>
+        <v>31910.8392583942</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2247,7 +2247,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>53707.83886834713</v>
+        <v>53707.83886834714</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3039,7 +3039,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>192438.6403801432</v>
+        <v>192438.6403801433</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3501,7 +3501,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>659989.6169505297</v>
+        <v>659989.6169505299</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4755,7 +4755,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>744340.2861112711</v>
+        <v>744340.2861112709</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5349,7 +5349,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>719459.3854483003</v>
+        <v>719459.3854483</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5415,7 +5415,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>848045.1390536643</v>
+        <v>848045.1390536642</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Recycling/Met_rec/metrec_Max_target_Max.xlsx
+++ b/Recycling/Met_rec/metrec_Max_target_Max.xlsx
@@ -832,7 +832,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>0.3128774421769158</v>
+        <v>0.3128774421769157</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1240,7 +1240,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>7286390.346697052</v>
+        <v>7286390.346697053</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2012,7 +2012,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3.874304769422755</v>
+        <v>3.874304769422756</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2260,7 +2260,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>4.559299474783819</v>
+        <v>4.55929947478382</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2668,7 +2668,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>8.989580589025207</v>
+        <v>8.989580589025209</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3032,7 +3032,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>52.28381317233104</v>
+        <v>52.28381317233103</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4416,7 +4416,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>70.91919617848703</v>
+        <v>70.91919617848704</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5116,7 +5116,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>716.6573746422704</v>
+        <v>716.6573746422705</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5232,7 +5232,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>423.2967344508499</v>
+        <v>423.2967344508498</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5684,7 +5684,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>7428.685772272792</v>
+        <v>7428.685772272794</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6048,7 +6048,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>1569.480717756888</v>
+        <v>1569.480717756889</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6384,7 +6384,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>6663.517133590581</v>
+        <v>6663.51713359058</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6456,7 +6456,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>3813.56867861395</v>
+        <v>3813.568678613951</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8292,7 +8292,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>98981.27737185539</v>
+        <v>98981.27737185538</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8336,7 +8336,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>86726.56654214865</v>
+        <v>86726.56654214863</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8424,7 +8424,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>46397.4627627047</v>
+        <v>46397.46276270469</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -9240,7 +9240,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>69500.46467159448</v>
+        <v>69500.46467159447</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -9560,7 +9560,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>180702.1692859279</v>
+        <v>180702.1692859278</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9808,7 +9808,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>338707.1948770207</v>
+        <v>338707.1948770208</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -10172,7 +10172,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>214142.4000615296</v>
+        <v>214142.4000615295</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10216,7 +10216,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>401960.2618048035</v>
+        <v>401960.2618048036</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -12052,7 +12052,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>2080200.083664352</v>
+        <v>2080200.083664351</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -13276,7 +13276,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>3261832.854223205</v>
+        <v>3261832.854223204</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -14340,7 +14340,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>944459.7457308288</v>
+        <v>944459.7457308287</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -14908,7 +14908,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>4416787.75771671</v>
+        <v>4416787.757716709</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -15360,7 +15360,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>924004.5632020317</v>
+        <v>924004.5632020318</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -15564,7 +15564,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>901044.9287682028</v>
+        <v>901044.9287682029</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -15840,7 +15840,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>2186566.64391809</v>
+        <v>2186566.643918091</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -16132,7 +16132,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>4774876.982626525</v>
+        <v>4774876.982626524</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -17356,7 +17356,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>4630623.926399282</v>
+        <v>4630623.926399281</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -17560,7 +17560,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>4658480.164470524</v>
+        <v>4658480.164470525</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -17880,7 +17880,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>1723750.533237248</v>
+        <v>1723750.533237247</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -18376,7 +18376,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>4962935.942547171</v>
+        <v>4962935.942547172</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -19396,7 +19396,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>5553127.042614246</v>
+        <v>5553127.042614247</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -19804,7 +19804,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>5881653.244504449</v>
+        <v>5881653.244504448</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -20372,7 +20372,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>1481887.648620698</v>
+        <v>1481887.648620697</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -20416,7 +20416,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>6405690.404802982</v>
+        <v>6405690.404802983</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -20824,7 +20824,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>6703968.295186157</v>
+        <v>6703968.295186156</v>
       </c>
     </row>
     <row r="13" spans="1:4">
